--- a/Experimentelles/Ausgewaehlte_Daten/Vergleich_Impedanzspektren.xlsx
+++ b/Experimentelles/Ausgewaehlte_Daten/Vergleich_Impedanzspektren.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Vergleich der Impedanzspektren</t>
   </si>
@@ -96,13 +97,49 @@
   </si>
   <si>
     <t>Abweichung zum Schnitt - Relativ</t>
+  </si>
+  <si>
+    <t>Variante R2 = 12 Ohm</t>
+  </si>
+  <si>
+    <t>Chi²</t>
+  </si>
+  <si>
+    <t>Innenwiderstand</t>
+  </si>
+  <si>
+    <t>Anode zu Elektrolyt</t>
+  </si>
+  <si>
+    <t>Stromkollektor zu Kathode</t>
+  </si>
+  <si>
+    <t>Kathode zu Elektrolyt</t>
+  </si>
+  <si>
+    <t>LiS da anderer Elektrolyt evtl. wenig sinnvoll</t>
+  </si>
+  <si>
+    <t>nach Zyklierung</t>
+  </si>
+  <si>
+    <t>Hinüber</t>
+  </si>
+  <si>
+    <t>Variante R2 = 17,5 Ohm</t>
+  </si>
+  <si>
+    <t>vor Zyklierung</t>
+  </si>
+  <si>
+    <t>nach Zyklierung, Variante R2 = 17,5 Ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +171,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,71 +215,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -275,46 +271,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -368,6 +324,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="685800"/>
+          <a:ext cx="4267796" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495896</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="228600"/>
           <a:ext cx="4267796" cy="695422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -645,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,21 +1929,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M29:R36">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:R18">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1946,4 +1951,707 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="O5" s="4">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="P5" s="4">
+        <v>9.51</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>13.61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="O6" s="4">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="P6" s="4">
+        <v>26.71</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>14.68</v>
+      </c>
+      <c r="T6" s="4">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>21.74</v>
+      </c>
+      <c r="O7" s="8">
+        <v>16.36</v>
+      </c>
+      <c r="P7" s="8">
+        <v>49.97</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>9.16</v>
+      </c>
+      <c r="T7" s="8">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8.59</v>
+      </c>
+      <c r="O8" s="4">
+        <v>15.77</v>
+      </c>
+      <c r="P8" s="4">
+        <v>6.92</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>7.82</v>
+      </c>
+      <c r="T8" s="8">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13.07</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="E10" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>14.88</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.51</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13.43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.7E-4</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>2.9E-4</v>
+      </c>
+      <c r="T10" s="9">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>27.79</v>
+      </c>
+      <c r="F11" s="4">
+        <v>21.64</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43.52</v>
+      </c>
+      <c r="H11" s="4">
+        <v>14.39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18.88</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.54</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.61</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>13.035</v>
+      </c>
+      <c r="O15" s="4">
+        <v>12.815</v>
+      </c>
+      <c r="P15" s="4">
+        <v>9.6081000000000003</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="S15" s="4">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="T15" s="4">
+        <v>15.096</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="M16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>11.689</v>
+      </c>
+      <c r="O16" s="4">
+        <v>13.473000000000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>36.164000000000001</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>16.12</v>
+      </c>
+      <c r="S16" s="4">
+        <v>30.44</v>
+      </c>
+      <c r="T16" s="4">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>22.971</v>
+      </c>
+      <c r="O17" s="4">
+        <v>13.089</v>
+      </c>
+      <c r="P17" s="4">
+        <v>27.437999999999999</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>9.6015999999999995</v>
+      </c>
+      <c r="S17" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="T17" s="4">
+        <v>14.343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>16.108000000000001</v>
+      </c>
+      <c r="O18" s="4">
+        <v>10.907</v>
+      </c>
+      <c r="P18" s="4">
+        <v>4.0762</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>8.2516999999999996</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="T18" s="4">
+        <v>4.3236999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13.06</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F23" s="4">
+        <v>13.35</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>14.53</v>
+      </c>
+      <c r="O23" s="4">
+        <v>16.13</v>
+      </c>
+      <c r="P23" s="4">
+        <v>8.26</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="S23" s="4">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15.73</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12.73</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44.23</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11.01</v>
+      </c>
+      <c r="H24" s="4">
+        <v>20.32</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="O24" s="4">
+        <v>28.47</v>
+      </c>
+      <c r="P24" s="4">
+        <v>51.17</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="O25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="P25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="S25" s="7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>17.91</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="4">
+        <v>15.28</v>
+      </c>
+      <c r="O26" s="4">
+        <v>20</v>
+      </c>
+      <c r="P26" s="4">
+        <v>12.29</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="S26" s="4">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="O28" s="5">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="P28" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1.72E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>